--- a/Excel Data/data1.xlsx
+++ b/Excel Data/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\4th_Year_Thesis\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2CA43-AA21-4CAA-805C-BBF8FA659823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA4A7C-C36A-49C3-84FD-989851F4F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31A9545C-417C-4BC6-863F-0F45F941D36A}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -245,7 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1286,6 +1285,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>4.4466666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6766666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8533333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.293333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.456666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.716666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.743333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.185200000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.894300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.609599999999986</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>106.49940000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>132.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>138.4821</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>143.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>162.23590000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163.98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170.66</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181.50319999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193.72110000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>206.34720000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>219.38150000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>232.82400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCE7-4599-B78E-84B0A62F32E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1979292400"/>
+        <c:axId val="24885664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1979292400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24885664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24885664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1979292400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1366,6 +1735,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2379,6 +2788,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2467,6 +3392,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43134AF-DEF2-B2F1-2C71-2ADA361167EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2795,7 +3756,7 @@
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,7 +3933,7 @@
       <c r="B12" s="3">
         <v>121.33</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12">
         <v>22.11</v>
       </c>
       <c r="D12" s="8">
@@ -2986,7 +3947,7 @@
       <c r="B13" s="3">
         <v>153.47999999999999</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13">
         <v>24.51</v>
       </c>
       <c r="D13" s="8">
@@ -3000,7 +3961,7 @@
       <c r="B14" s="3">
         <v>204.51</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14">
         <v>29.79</v>
       </c>
       <c r="D14" s="8">
@@ -3014,7 +3975,7 @@
       <c r="B15" s="3">
         <v>258.73</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>33.729999999999997</v>
       </c>
       <c r="D15" s="8">
@@ -3028,7 +3989,7 @@
       <c r="B16" s="3">
         <v>331.57</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16">
         <v>40.56</v>
       </c>
       <c r="D16" s="8">
@@ -3042,7 +4003,7 @@
       <c r="B17" s="3">
         <v>397.66</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17">
         <v>42.33</v>
       </c>
       <c r="D17" s="8">
@@ -3056,7 +4017,7 @@
       <c r="B18" s="3">
         <v>455.17</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18">
         <v>65.185200000000009</v>
       </c>
       <c r="D18" s="8">
@@ -3070,7 +4031,7 @@
       <c r="B19" s="2">
         <v>544.27</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19">
         <v>66.61</v>
       </c>
       <c r="D19" s="8">
@@ -3084,7 +4045,7 @@
       <c r="B20" s="2">
         <v>598.71</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20">
         <v>69.37</v>
       </c>
       <c r="D20" s="8">
@@ -3098,7 +4059,7 @@
       <c r="B21" s="2">
         <v>600.54</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21">
         <v>77.52</v>
       </c>
       <c r="D21" s="8">
@@ -3112,7 +4073,7 @@
       <c r="B22" s="2">
         <v>703.21</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22">
         <v>78.894300000000001</v>
       </c>
       <c r="D22" s="8">
@@ -3126,7 +4087,7 @@
       <c r="B23" s="2">
         <v>719.21</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23">
         <v>87.609599999999986</v>
       </c>
       <c r="D23" s="8">
@@ -3140,7 +4101,7 @@
       <c r="B24" s="2">
         <v>750.64</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24">
         <v>91.26</v>
       </c>
       <c r="D24" s="8">
@@ -3154,7 +4115,7 @@
       <c r="B25" s="2">
         <v>841.44</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25">
         <v>106.49940000000001</v>
       </c>
       <c r="D25" s="8">
@@ -3168,7 +4129,7 @@
       <c r="B26" s="2">
         <v>960.11</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26">
         <v>108.25</v>
       </c>
       <c r="D26" s="8">
@@ -3182,7 +4143,7 @@
       <c r="B27" s="2">
         <v>1140.23</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27">
         <v>132.61000000000001</v>
       </c>
       <c r="D27" s="8">
@@ -3196,7 +4157,7 @@
       <c r="B28" s="2">
         <v>1167.45</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28">
         <v>138.4821</v>
       </c>
       <c r="D28" s="8">
@@ -3210,7 +4171,7 @@
       <c r="B29" s="2">
         <v>1405.35</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29">
         <v>143.22999999999999</v>
       </c>
       <c r="D29" s="8">
@@ -3224,7 +4185,7 @@
       <c r="B30" s="2">
         <v>1489.94</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30">
         <v>162.23590000000002</v>
       </c>
       <c r="D30" s="8">
@@ -3238,7 +4199,7 @@
       <c r="B31" s="2">
         <v>1644.25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31">
         <v>163.98</v>
       </c>
       <c r="D31" s="8">
@@ -3252,7 +4213,7 @@
       <c r="B32" s="2">
         <v>1819.38</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32">
         <v>170.66</v>
       </c>
       <c r="D32" s="8">
@@ -3263,8 +4224,7 @@
       <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10">
+      <c r="C33">
         <v>181.50319999999999</v>
       </c>
       <c r="D33" s="8">
@@ -3275,8 +4235,7 @@
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10">
+      <c r="C34">
         <v>193.72110000000001</v>
       </c>
       <c r="D34" s="8">
@@ -3287,8 +4246,7 @@
       <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10">
+      <c r="C35">
         <v>206.34720000000002</v>
       </c>
       <c r="D35" s="8">
@@ -3299,8 +4257,7 @@
       <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10">
+      <c r="C36">
         <v>219.38150000000002</v>
       </c>
       <c r="D36" s="8">
@@ -3311,8 +4268,7 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10">
+      <c r="C37">
         <v>232.82400000000001</v>
       </c>
       <c r="D37" s="8">
@@ -3323,8 +4279,7 @@
       <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10">
+      <c r="C38">
         <v>246.6747</v>
       </c>
       <c r="D38" s="8">
@@ -3335,8 +4290,7 @@
       <c r="A39" s="9">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10">
+      <c r="C39">
         <v>260.93360000000001</v>
       </c>
       <c r="D39" s="8">
@@ -3347,8 +4301,7 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10">
+      <c r="C40">
         <v>275.60070000000002</v>
       </c>
       <c r="D40" s="8">
@@ -3359,8 +4312,7 @@
       <c r="A41" s="9">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10">
+      <c r="C41">
         <v>290.67600000000004</v>
       </c>
       <c r="D41" s="8">
@@ -3371,8 +4323,7 @@
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10">
+      <c r="C42">
         <v>306.15950000000004</v>
       </c>
       <c r="D42" s="8">
@@ -3383,8 +4334,7 @@
       <c r="A43" s="9">
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10">
+      <c r="C43">
         <v>322.05120000000005</v>
       </c>
       <c r="D43" s="8">
@@ -3395,8 +4345,7 @@
       <c r="A44" s="9">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10">
+      <c r="C44">
         <v>338.35110000000003</v>
       </c>
       <c r="D44" s="8">
@@ -3407,8 +4356,7 @@
       <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10">
+      <c r="C45">
         <v>355.05920000000003</v>
       </c>
       <c r="D45" s="8">
@@ -3419,8 +4367,7 @@
       <c r="A46" s="9">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10">
+      <c r="C46">
         <v>372.17550000000006</v>
       </c>
       <c r="D46" s="8">
@@ -3431,8 +4378,7 @@
       <c r="A47" s="9">
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10">
+      <c r="C47">
         <v>389.70000000000005</v>
       </c>
       <c r="D47" s="8">
@@ -3443,8 +4389,7 @@
       <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10">
+      <c r="C48">
         <v>407.63270000000006</v>
       </c>
       <c r="D48" s="8">
@@ -3455,8 +4400,7 @@
       <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10">
+      <c r="C49">
         <v>425.97360000000003</v>
       </c>
       <c r="D49" s="8">
@@ -3467,8 +4411,7 @@
       <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10">
+      <c r="C50">
         <v>444.72270000000003</v>
       </c>
       <c r="D50" s="8">
@@ -3479,8 +4422,7 @@
       <c r="A51" s="9">
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10">
+      <c r="C51">
         <v>463.88000000000005</v>
       </c>
       <c r="D51" s="8">
@@ -3491,8 +4433,7 @@
       <c r="A52" s="9">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10">
+      <c r="C52">
         <v>483.44550000000004</v>
       </c>
       <c r="D52" s="8">
@@ -3503,8 +4444,7 @@
       <c r="A53" s="9">
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10">
+      <c r="C53">
         <v>503.41920000000005</v>
       </c>
       <c r="D53" s="8">
@@ -3515,8 +4455,7 @@
       <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10">
+      <c r="C54">
         <v>523.80110000000002</v>
       </c>
       <c r="D54" s="8">
@@ -3527,8 +4466,7 @@
       <c r="A55" s="9">
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10">
+      <c r="C55">
         <v>544.59120000000007</v>
       </c>
       <c r="D55" s="8">
@@ -3539,8 +4477,7 @@
       <c r="A56" s="9">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10">
+      <c r="C56">
         <v>565.78950000000009</v>
       </c>
       <c r="D56" s="8">
@@ -3551,8 +4488,7 @@
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10">
+      <c r="C57">
         <v>587.39600000000007</v>
       </c>
       <c r="D57" s="8">
@@ -3563,8 +4499,7 @@
       <c r="A58" s="9">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10">
+      <c r="C58">
         <v>609.41070000000002</v>
       </c>
       <c r="D58" s="8">
@@ -3575,8 +4510,7 @@
       <c r="A59" s="9">
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10">
+      <c r="C59">
         <v>631.83360000000005</v>
       </c>
       <c r="D59" s="8">
@@ -3587,8 +4521,7 @@
       <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10">
+      <c r="C60">
         <v>654.66470000000004</v>
       </c>
       <c r="D60" s="8">
@@ -3599,8 +4532,7 @@
       <c r="A61" s="9">
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10">
+      <c r="C61">
         <v>677.90400000000011</v>
       </c>
       <c r="D61" s="8">
@@ -3611,8 +4543,7 @@
       <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10">
+      <c r="C62">
         <v>701.55150000000003</v>
       </c>
       <c r="D62" s="8">
@@ -3623,8 +4554,7 @@
       <c r="A63" s="9">
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10">
+      <c r="C63">
         <v>725.60720000000003</v>
       </c>
       <c r="D63" s="8">
@@ -3635,8 +4565,7 @@
       <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10">
+      <c r="C64">
         <v>750.0711</v>
       </c>
       <c r="D64" s="8">
@@ -3647,8 +4576,7 @@
       <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10">
+      <c r="C65">
         <v>774.94320000000005</v>
       </c>
       <c r="D65" s="8">
@@ -3659,8 +4587,7 @@
       <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10">
+      <c r="C66">
         <v>800.22350000000006</v>
       </c>
       <c r="D66" s="8">
@@ -3671,8 +4598,7 @@
       <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10">
+      <c r="C67">
         <v>825.91200000000003</v>
       </c>
       <c r="D67" s="8">
@@ -3683,8 +4609,7 @@
       <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10">
+      <c r="C68">
         <v>852.00870000000009</v>
       </c>
       <c r="D68" s="8">
@@ -3695,8 +4620,7 @@
       <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10">
+      <c r="C69">
         <v>878.51360000000011</v>
       </c>
       <c r="D69" s="8">
@@ -3707,8 +4631,7 @@
       <c r="A70" s="9">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10">
+      <c r="C70">
         <v>905.4267000000001</v>
       </c>
       <c r="D70" s="8">
@@ -3719,8 +4642,7 @@
       <c r="A71" s="9">
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10">
+      <c r="C71">
         <v>932.74800000000005</v>
       </c>
       <c r="D71" s="8"/>
@@ -3729,8 +4651,7 @@
       <c r="A72" s="9">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10">
+      <c r="C72">
         <v>960.47750000000008</v>
       </c>
       <c r="D72" s="8"/>
@@ -3739,8 +4660,7 @@
       <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10">
+      <c r="C73">
         <v>988.61519999999996</v>
       </c>
       <c r="D73" s="8"/>
@@ -3749,8 +4669,7 @@
       <c r="A74" s="9">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10">
+      <c r="C74">
         <v>1017.1611</v>
       </c>
       <c r="D74" s="8"/>
@@ -3759,8 +4678,7 @@
       <c r="A75" s="9">
         <v>73</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10">
+      <c r="C75">
         <v>1046.1152</v>
       </c>
       <c r="D75" s="8"/>
@@ -3769,8 +4687,7 @@
       <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10">
+      <c r="C76">
         <v>1075.4775</v>
       </c>
       <c r="D76" s="8"/>
@@ -3779,8 +4696,7 @@
       <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10">
+      <c r="C77">
         <v>1105.248</v>
       </c>
       <c r="D77" s="8"/>
@@ -3789,8 +4705,7 @@
       <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10">
+      <c r="C78">
         <v>1135.4267</v>
       </c>
       <c r="D78" s="8"/>
@@ -3799,8 +4714,7 @@
       <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10">
+      <c r="C79">
         <v>1166.0136</v>
       </c>
       <c r="D79" s="8"/>
@@ -3809,8 +4723,7 @@
       <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10">
+      <c r="C80">
         <v>1197.0087000000001</v>
       </c>
       <c r="D80" s="8"/>
@@ -3819,8 +4732,7 @@
       <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10">
+      <c r="C81">
         <v>1228.412</v>
       </c>
       <c r="D81" s="8"/>
@@ -3829,8 +4741,7 @@
       <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10">
+      <c r="C82">
         <v>1260.2235000000001</v>
       </c>
       <c r="D82" s="8"/>
@@ -3839,8 +4750,7 @@
       <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10">
+      <c r="C83">
         <v>1292.4432000000002</v>
       </c>
       <c r="D83" s="8"/>
@@ -3849,8 +4759,7 @@
       <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10">
+      <c r="C84">
         <v>1325.0711000000001</v>
       </c>
       <c r="D84" s="8"/>
@@ -3859,8 +4768,7 @@
       <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10">
+      <c r="C85">
         <v>1358.1072000000001</v>
       </c>
       <c r="D85" s="8"/>
@@ -3869,8 +4777,7 @@
       <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10">
+      <c r="C86">
         <v>1391.5515</v>
       </c>
       <c r="D86" s="8"/>
@@ -3879,8 +4786,7 @@
       <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10">
+      <c r="C87">
         <v>1425.404</v>
       </c>
       <c r="D87" s="8"/>
@@ -3889,8 +4795,7 @@
       <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10">
+      <c r="C88">
         <v>1459.6647</v>
       </c>
       <c r="D88" s="8"/>
@@ -3899,8 +4804,7 @@
       <c r="A89" s="9">
         <v>87</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10">
+      <c r="C89">
         <v>1494.3336000000002</v>
       </c>
       <c r="D89" s="8"/>
@@ -3909,8 +4813,7 @@
       <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10">
+      <c r="C90">
         <v>1529.4107000000001</v>
       </c>
       <c r="D90" s="8"/>
@@ -3919,19 +4822,18 @@
       <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10">
+      <c r="C91">
         <v>1564.8960000000002</v>
       </c>
       <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="11">
+      <c r="A92" s="10">
         <v>90</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
